--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -439,49 +439,45 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Column 2</t>
+          <t>Nr of points</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Column 3</t>
+          <t>Points</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Column 4</t>
+          <t>%-age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 5</t>
+          <t>Column 6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Column 7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Column 8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Column 9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
+          <t>Column 10</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -439,47 +439,47 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nr of points</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Points</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>%-age</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Column 10</t>
-        </is>
-      </c>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>First Word</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -479,7 +479,11 @@
           <t>Blue</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -432,6 +432,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.4" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="8.4" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
+    <col width="60" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -495,28 +507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371900826446281</v>
+        <v>3.72</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4256198347107438</v>
+        <v>42.56</v>
       </c>
       <c r="E2" t="n">
-        <v>0.268595041322314</v>
+        <v>26.86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04132231404958678</v>
+        <v>4.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1694214876033058</v>
+        <v>16.94</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05785123966942149</v>
+        <v>5.79</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1150793650793651</v>
+        <v>11.51</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2936507936507937</v>
+        <v>29.37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2222222222222222</v>
+        <v>22.22</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1031746031746032</v>
+        <v>10.32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2420634920634921</v>
+        <v>24.21</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +575,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4008264462809917</v>
+        <v>40.08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2024793388429752</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09090909090909091</v>
+        <v>9.09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04132231404958678</v>
+        <v>4.13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2148760330578512</v>
+        <v>21.49</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04958677685950413</v>
+        <v>4.96</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +606,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09130434782608696</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2782608695652174</v>
+        <v>27.83</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3434782608695652</v>
+        <v>34.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08260869565217391</v>
+        <v>8.26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06956521739130435</v>
+        <v>6.96</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08260869565217391</v>
+        <v>8.26</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2217741935483871</v>
+        <v>22.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3346774193548387</v>
+        <v>33.47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1008064516129032</v>
+        <v>10.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1370967741935484</v>
+        <v>13.71</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1733870967741936</v>
+        <v>17.34</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03225806451612903</v>
+        <v>3.23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +674,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04201680672268908</v>
+        <v>4.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3403361344537815</v>
+        <v>34.03</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4327731092436975</v>
+        <v>43.28</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03361344537815126</v>
+        <v>3.36</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02521008403361345</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06722689075630252</v>
+        <v>6.72</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05882352941176471</v>
+        <v>5.88</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6282051282051282</v>
+        <v>62.82</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1452991452991453</v>
+        <v>14.53</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05982905982905983</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04273504273504274</v>
+        <v>4.27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08974358974358974</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03418803418803419</v>
+        <v>3.42</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +742,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07327586206896551</v>
+        <v>7.33</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3663793103448276</v>
+        <v>36.64</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2370689655172414</v>
+        <v>23.71</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1163793103448276</v>
+        <v>11.64</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05172413793103448</v>
+        <v>5.17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09482758620689655</v>
+        <v>9.48</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0603448275862069</v>
+        <v>6.03</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2136752136752137</v>
+        <v>21.37</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3418803418803419</v>
+        <v>34.19</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1239316239316239</v>
+        <v>12.39</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09829059829059829</v>
+        <v>9.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1709401709401709</v>
+        <v>17.09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05128205128205128</v>
+        <v>5.13</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +813,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3434782608695652</v>
+        <v>34.35</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3521739130434783</v>
+        <v>35.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1173913043478261</v>
+        <v>11.74</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0391304347826087</v>
+        <v>3.91</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09565217391304348</v>
+        <v>9.57</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3830645161290323</v>
+        <v>38.31</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3024193548387097</v>
+        <v>30.24</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1048387096774194</v>
+        <v>10.48</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04838709677419355</v>
+        <v>4.84</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1209677419354839</v>
+        <v>12.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04032258064516129</v>
+        <v>4.03</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1976744186046512</v>
+        <v>19.77</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3953488372093023</v>
+        <v>39.53</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1434108527131783</v>
+        <v>14.34</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06589147286821706</v>
+        <v>6.59</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1356589147286822</v>
+        <v>13.57</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06201550387596899</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +915,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2790697674418605</v>
+        <v>27.91</v>
       </c>
       <c r="D14" t="n">
-        <v>0.251937984496124</v>
+        <v>25.19</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1782945736434109</v>
+        <v>17.83</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06976744186046512</v>
+        <v>6.98</v>
       </c>
       <c r="G14" t="n">
-        <v>0.189922480620155</v>
+        <v>18.99</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0310077519379845</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +949,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2565217391304348</v>
+        <v>25.65</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1478260869565217</v>
+        <v>14.78</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09565217391304348</v>
+        <v>9.57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04782608695652174</v>
+        <v>4.78</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -433,16 +433,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.4" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="8.4" customWidth="1" min="3" max="3"/>
-    <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="9.6" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="60" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD_SEAL_2023_</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XPENG</t>
+          <t>XPENG_G9_2023_</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VINFAST</t>
+          <t>VinFast_VF8_2023_</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda_ZR-V_2023_</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD_SEAL-U_2023_</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Volkswagen_ID.7_2023_</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW_5 Series_2023_</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smart_#3_</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD_Tang_2023_</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hyundai_KONA_2023_</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia_EV9_2023_</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO_ET5_2023_</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -908,7 +908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO_EL7_2023_</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Lexus_RZ_2023_</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BYD_SEAL_2023_</t>
+          <t>BYD SEAL  2023</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,29 +534,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XPENG_G9_2023_</t>
+          <t>Honda ZR-V  2023</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51</v>
+        <v>27.83</v>
       </c>
       <c r="D3" t="n">
-        <v>29.37</v>
+        <v>34.35</v>
       </c>
       <c r="E3" t="n">
-        <v>22.22</v>
+        <v>8.26</v>
       </c>
       <c r="F3" t="n">
-        <v>10.32</v>
+        <v>6.96</v>
       </c>
       <c r="G3" t="n">
-        <v>24.21</v>
+        <v>8.26</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>5.22</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VinFast_VF8_2023_</t>
+          <t>BYD SEAL-U  2023</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.08</v>
+        <v>22.18</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>33.47</v>
       </c>
       <c r="E4" t="n">
-        <v>9.09</v>
+        <v>10.08</v>
       </c>
       <c r="F4" t="n">
-        <v>4.13</v>
+        <v>13.71</v>
       </c>
       <c r="G4" t="n">
-        <v>21.49</v>
+        <v>17.34</v>
       </c>
       <c r="H4" t="n">
-        <v>4.96</v>
+        <v>3.23</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,29 +602,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honda_ZR-V_2023_</t>
+          <t>BYD Tang  2023</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.83</v>
+        <v>21.37</v>
       </c>
       <c r="D5" t="n">
-        <v>34.35</v>
+        <v>34.19</v>
       </c>
       <c r="E5" t="n">
-        <v>8.26</v>
+        <v>12.39</v>
       </c>
       <c r="F5" t="n">
-        <v>6.96</v>
+        <v>9.83</v>
       </c>
       <c r="G5" t="n">
-        <v>8.26</v>
+        <v>17.09</v>
       </c>
       <c r="H5" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BYD_SEAL-U_2023_</t>
+          <t>Hyundai KONA  2023</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.18</v>
+        <v>34.35</v>
       </c>
       <c r="D6" t="n">
-        <v>33.47</v>
+        <v>35.22</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08</v>
+        <v>11.74</v>
       </c>
       <c r="F6" t="n">
-        <v>13.71</v>
+        <v>3.91</v>
       </c>
       <c r="G6" t="n">
-        <v>17.34</v>
+        <v>9.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.23</v>
+        <v>5.22</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,306 +670,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Volkswagen_ID.7_2023_</t>
+          <t>Lexus RZ  2023</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.03</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>43.28</v>
+        <v>25.65</v>
       </c>
       <c r="E7" t="n">
-        <v>3.36</v>
+        <v>14.78</v>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>9.57</v>
       </c>
       <c r="G7" t="n">
-        <v>6.72</v>
+        <v>4.78</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88</v>
+        <v>5.22</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BMW_5 Series_2023_</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>smart_#3_</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C9" t="n">
-        <v>36.64</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BYD_Tang_2023_</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="D10" t="n">
-        <v>34.19</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hyundai_KONA_2023_</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Kia_EV9_2023_</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NIO_ET5_2023_</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39.53</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NIO_EL7_2023_</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.91</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lexus_RZ_2023_</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BYD SEAL  2023</t>
+          <t xml:space="preserve">BYD SEAL 2023 </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,29 +534,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honda ZR-V  2023</t>
+          <t xml:space="preserve">XPENG G9 2023 </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.83</v>
+        <v>11.51</v>
       </c>
       <c r="D3" t="n">
-        <v>34.35</v>
+        <v>29.37</v>
       </c>
       <c r="E3" t="n">
-        <v>8.26</v>
+        <v>22.22</v>
       </c>
       <c r="F3" t="n">
-        <v>6.96</v>
+        <v>10.32</v>
       </c>
       <c r="G3" t="n">
-        <v>8.26</v>
+        <v>24.21</v>
       </c>
       <c r="H3" t="n">
-        <v>5.22</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BYD SEAL-U  2023</t>
+          <t xml:space="preserve">VinFast VF8 2023 </t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.18</v>
+        <v>40.08</v>
       </c>
       <c r="D4" t="n">
-        <v>33.47</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>10.08</v>
+        <v>9.09</v>
       </c>
       <c r="F4" t="n">
-        <v>13.71</v>
+        <v>4.13</v>
       </c>
       <c r="G4" t="n">
-        <v>17.34</v>
+        <v>21.49</v>
       </c>
       <c r="H4" t="n">
-        <v>3.23</v>
+        <v>4.96</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,29 +602,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BYD Tang  2023</t>
+          <t xml:space="preserve">Honda ZR V 2023 </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>21.37</v>
+        <v>27.83</v>
       </c>
       <c r="D5" t="n">
-        <v>34.19</v>
+        <v>34.35</v>
       </c>
       <c r="E5" t="n">
-        <v>12.39</v>
+        <v>8.26</v>
       </c>
       <c r="F5" t="n">
-        <v>9.83</v>
+        <v>6.96</v>
       </c>
       <c r="G5" t="n">
-        <v>17.09</v>
+        <v>8.26</v>
       </c>
       <c r="H5" t="n">
-        <v>5.13</v>
+        <v>5.22</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hyundai KONA  2023</t>
+          <t xml:space="preserve">BYD SEAL U 2023 </t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.35</v>
+        <v>22.18</v>
       </c>
       <c r="D6" t="n">
-        <v>35.22</v>
+        <v>33.47</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74</v>
+        <v>10.08</v>
       </c>
       <c r="F6" t="n">
-        <v>3.91</v>
+        <v>13.71</v>
       </c>
       <c r="G6" t="n">
-        <v>9.57</v>
+        <v>17.34</v>
       </c>
       <c r="H6" t="n">
-        <v>5.22</v>
+        <v>3.23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,34 +670,306 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lexus RZ  2023</t>
+          <t xml:space="preserve">Volkswagen ID.7 2023 </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="C7" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMW 5 Series 2023 </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">smart #3 </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BYD Tang 2023 </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyundai KONA 2023 </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kia EV9 2023 </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NIO ET5 2023 </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.53</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NIO EL7 2023 </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lexus RZ 2023 </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D15" t="n">
         <v>25.65</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E15" t="n">
         <v>14.78</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F15" t="n">
         <v>9.57</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G15" t="n">
         <v>4.78</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H15" t="n">
         <v>5.22</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD SEAL 2023 </t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">XPENG G9 2023 </t>
+          <t>XPENG</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">VinFast VF8 2023 </t>
+          <t>VINFAST</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda ZR V 2023 </t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD SEAL U 2023 </t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volkswagen ID.7 2023 </t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW 5 Series 2023 </t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart #3 </t>
+          <t>smart</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD Tang 2023 </t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyundai KONA 2023 </t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia EV9 2023 </t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIO ET5 2023 </t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -908,7 +908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIO EL7 2023 </t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lexus RZ 2023 </t>
+          <t>Lexus</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD SEAL</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XPENG</t>
+          <t>XPENG G9</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VINFAST</t>
+          <t>VINFAST VF8</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda ZR-V</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD SEAL-U</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Volkswagen ID.7</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW 5 series</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smart #3</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD TANG</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hyundai KONA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia EV9</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO ET5</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -908,7 +908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO EL7</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Lexus RZ</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,236 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,4 +1207,29 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="27"/>
+    <row r="53"/>
+    <row r="79"/>
+    <row r="105"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -221,7 +221,7 @@
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6000750" cy="4476750"/>
+    <ext cx="5991225" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -221,7 +221,7 @@
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5991225" cy="4476750"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2023_cars_combined.xlsx
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="D2" t="n">
-        <v>42.56</v>
+        <v>42.56198347107438</v>
       </c>
       <c r="E2" t="n">
-        <v>26.86</v>
+        <v>26.8595041322314</v>
       </c>
       <c r="F2" t="n">
-        <v>4.13</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G2" t="n">
-        <v>16.94</v>
+        <v>16.94214876033058</v>
       </c>
       <c r="H2" t="n">
-        <v>5.79</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51</v>
+        <v>11.50793650793651</v>
       </c>
       <c r="D3" t="n">
-        <v>29.37</v>
+        <v>29.36507936507937</v>
       </c>
       <c r="E3" t="n">
-        <v>22.22</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F3" t="n">
-        <v>10.32</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="G3" t="n">
-        <v>24.21</v>
+        <v>24.20634920634921</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.08</v>
+        <v>40.08264462809917</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>20.24793388429752</v>
       </c>
       <c r="E4" t="n">
-        <v>9.09</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="F4" t="n">
-        <v>4.13</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G4" t="n">
-        <v>21.49</v>
+        <v>21.48760330578513</v>
       </c>
       <c r="H4" t="n">
-        <v>4.96</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -837,25 +837,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.130000000000001</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="C5" t="n">
-        <v>27.83</v>
+        <v>27.82608695652174</v>
       </c>
       <c r="D5" t="n">
-        <v>34.35</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="E5" t="n">
-        <v>8.26</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="F5" t="n">
-        <v>6.96</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="G5" t="n">
-        <v>8.26</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="H5" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.18</v>
+        <v>22.17741935483871</v>
       </c>
       <c r="D6" t="n">
-        <v>33.47</v>
+        <v>33.46774193548387</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08</v>
+        <v>10.08064516129032</v>
       </c>
       <c r="F6" t="n">
-        <v>13.71</v>
+        <v>13.70967741935484</v>
       </c>
       <c r="G6" t="n">
-        <v>17.34</v>
+        <v>17.33870967741936</v>
       </c>
       <c r="H6" t="n">
-        <v>3.23</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -905,25 +905,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.2</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="C7" t="n">
-        <v>34.03</v>
+        <v>34.03361344537815</v>
       </c>
       <c r="D7" t="n">
-        <v>43.28</v>
+        <v>43.27731092436975</v>
       </c>
       <c r="E7" t="n">
-        <v>3.36</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.521008403361344</v>
       </c>
       <c r="G7" t="n">
-        <v>6.72</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.82</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="D8" t="n">
-        <v>14.53</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E8" t="n">
-        <v>5.98</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F8" t="n">
-        <v>4.27</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="G8" t="n">
-        <v>8.970000000000001</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="H8" t="n">
-        <v>3.42</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -973,25 +973,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.33</v>
+        <v>7.327586206896551</v>
       </c>
       <c r="C9" t="n">
-        <v>36.64</v>
+        <v>36.63793103448275</v>
       </c>
       <c r="D9" t="n">
-        <v>23.71</v>
+        <v>23.70689655172414</v>
       </c>
       <c r="E9" t="n">
-        <v>11.64</v>
+        <v>11.63793103448276</v>
       </c>
       <c r="F9" t="n">
-        <v>5.17</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="G9" t="n">
-        <v>9.48</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="H9" t="n">
-        <v>6.03</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1010,22 +1010,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.37</v>
+        <v>21.36752136752137</v>
       </c>
       <c r="D10" t="n">
-        <v>34.19</v>
+        <v>34.18803418803419</v>
       </c>
       <c r="E10" t="n">
-        <v>12.39</v>
+        <v>12.39316239316239</v>
       </c>
       <c r="F10" t="n">
-        <v>9.83</v>
+        <v>9.82905982905983</v>
       </c>
       <c r="G10" t="n">
-        <v>17.09</v>
+        <v>17.09401709401709</v>
       </c>
       <c r="H10" t="n">
-        <v>5.13</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.35</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="D11" t="n">
-        <v>35.22</v>
+        <v>35.21739130434783</v>
       </c>
       <c r="E11" t="n">
-        <v>11.74</v>
+        <v>11.73913043478261</v>
       </c>
       <c r="F11" t="n">
-        <v>3.91</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="G11" t="n">
-        <v>9.57</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="H11" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1078,22 +1078,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.31</v>
+        <v>38.30645161290322</v>
       </c>
       <c r="D12" t="n">
-        <v>30.24</v>
+        <v>30.24193548387097</v>
       </c>
       <c r="E12" t="n">
-        <v>10.48</v>
+        <v>10.48387096774194</v>
       </c>
       <c r="F12" t="n">
-        <v>4.84</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1</v>
+        <v>12.09677419354839</v>
       </c>
       <c r="H12" t="n">
-        <v>4.03</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.77</v>
+        <v>19.76744186046512</v>
       </c>
       <c r="D13" t="n">
-        <v>39.53</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="E13" t="n">
-        <v>14.34</v>
+        <v>14.34108527131783</v>
       </c>
       <c r="F13" t="n">
-        <v>6.59</v>
+        <v>6.589147286821706</v>
       </c>
       <c r="G13" t="n">
-        <v>13.57</v>
+        <v>13.56589147286822</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>6.2015503875969</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.91</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="D14" t="n">
-        <v>25.19</v>
+        <v>25.1937984496124</v>
       </c>
       <c r="E14" t="n">
-        <v>17.83</v>
+        <v>17.82945736434108</v>
       </c>
       <c r="F14" t="n">
-        <v>6.98</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="G14" t="n">
-        <v>18.99</v>
+        <v>18.99224806201551</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.10077519379845</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>25.65</v>
+        <v>25.65217391304348</v>
       </c>
       <c r="E15" t="n">
-        <v>14.78</v>
+        <v>14.78260869565217</v>
       </c>
       <c r="F15" t="n">
-        <v>9.57</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="G15" t="n">
-        <v>4.78</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="H15" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
